--- a/data/trans_camb/P10_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P10_2-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 4,23</t>
+          <t>-5,52; 3,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,41</t>
+          <t>-2,03; 5,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 3,29</t>
+          <t>-2,67; 3,13</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,59%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 4,91</t>
+          <t>-6,18; 4,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 6,48</t>
+          <t>-2,32; 6,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 3,88</t>
+          <t>-3,06; 3,66</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,53</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 6,3</t>
+          <t>-4,12; 5,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 8,99</t>
+          <t>-1,15; 9,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 6,08</t>
+          <t>-1,12; 6,13</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 7,56</t>
+          <t>-4,73; 6,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 12,08</t>
+          <t>-1,44; 12,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 7,61</t>
+          <t>-1,42; 7,6</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>3,17</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 18,17</t>
+          <t>-11,35; 20,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 10,94</t>
+          <t>-9,72; 10,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 11,03</t>
+          <t>-6,71; 12,4</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>4,46%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 30,12</t>
+          <t>-14,55; 33,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 16,85</t>
+          <t>-12,77; 15,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 16,66</t>
+          <t>-8,73; 18,37</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,33</t>
+          <t>-2,78; 4,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,92</t>
+          <t>-0,95; 5,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,87</t>
+          <t>-0,71; 3,7</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 5,23</t>
+          <t>-3,26; 5,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 6,13</t>
+          <t>-1,13; 6,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,74</t>
+          <t>-0,85; 4,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P10_2-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.5562627081798555</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.619512255685207</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5793513015283747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,52; 3,91</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 5,36</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 3,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.448944529439551</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.049790368086336</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.69667165524244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,83%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,92%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,59%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.255549624541518</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.489975563244872</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.271477680161739</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,18; 4,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 6,47</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 3,66</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.006347650748792172</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.01900170697820035</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.006707126236779301</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,95</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.06161543843867183</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.0236433140696396</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.03054746369008161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,12; 5,83</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 9,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 6,13</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.04935140307905629</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.06585934211373437</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.03852316131841509</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,25%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,05%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.237359570831709</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.099237439817049</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.68459667044405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; 6,95</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 12,21</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 7,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.818503790838702</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.120650712832737</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.056714904626754</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,71</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.941198280008931</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.304430145119536</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.254195429608036</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,35; 20,38</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,72; 10,58</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 12,4</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.01446865828555251</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.05248775938114813</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.03282756540728277</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>8,16%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,77%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.04445203543939633</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.01388425160722668</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.01281656625735047</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-14,55; 33,3</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 15,55</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-8,73; 18,37</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.06991259176349998</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1244427150493894</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.07675765535491311</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>4.666761357426763</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.1956439080823769</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.267361816074809</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 4,3</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 5,09</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,71; 3,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-12.61992852907844</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-10.88729422556863</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.715760842555447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,97%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>19.13603437290122</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.662266263146808</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>11.51298044125927</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 5,13</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 6,36</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 4,56</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.06664634853395507</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.002724575745406125</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.03197824290759658</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1653028519872787</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1482358711286723</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1005996804703012</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.3159434068326257</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1444085591882481</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1722679306978484</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.8060517971628878</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2.402880936737495</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.622918046334776</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.823372407718692</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.9228289103753207</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.670063885258223</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.29751892194545</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.060797018765976</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.860984776107319</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.009524984461757681</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.02969572061897726</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.01961751343142023</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.03319970846843997</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.01118458902689104</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.00794542795764239</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.05200341626228526</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.06349438159897244</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.04738449333492912</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
